--- a/fig6.xlsx
+++ b/fig6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olaaaa/Desktop/定向选育/非酒精性脂肪肝/Host-Mediated Probiotic Optimization for NAFLD/数据上传/github/fig6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006412C-F40B-8F44-A1BD-E60448742A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6A378B-0B33-4541-82FB-22E86B05D175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="4080" windowWidth="28960" windowHeight="22500" activeTab="3" xr2:uid="{5871D497-8CE7-BB44-AA7C-5CD56FAF5E6E}"/>
+    <workbookView xWindow="20200" yWindow="1200" windowWidth="28960" windowHeight="22500" activeTab="1" xr2:uid="{5871D497-8CE7-BB44-AA7C-5CD56FAF5E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="species_relative_abundance" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="793">
   <si>
     <t>clade_name</t>
   </si>
@@ -2057,10 +2057,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Control</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2366,51 +2362,6 @@
   </si>
   <si>
     <t>A102</t>
-  </si>
-  <si>
-    <t>A103</t>
-  </si>
-  <si>
-    <t>A104</t>
-  </si>
-  <si>
-    <t>A105</t>
-  </si>
-  <si>
-    <t>A106</t>
-  </si>
-  <si>
-    <t>A107</t>
-  </si>
-  <si>
-    <t>A108</t>
-  </si>
-  <si>
-    <t>A109</t>
-  </si>
-  <si>
-    <t>A110</t>
-  </si>
-  <si>
-    <t>A111</t>
-  </si>
-  <si>
-    <t>A112</t>
-  </si>
-  <si>
-    <t>A113</t>
-  </si>
-  <si>
-    <t>A114</t>
-  </si>
-  <si>
-    <t>A115</t>
-  </si>
-  <si>
-    <t>A116</t>
-  </si>
-  <si>
-    <t>A117</t>
   </si>
   <si>
     <t>index</t>
@@ -3078,14 +3029,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3477,37 +3425,37 @@
         <v>647</v>
       </c>
       <c r="H1" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="I1" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="J1" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="K1" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="L1" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="M1" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="N1" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="O1" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="P1" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="Q1" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="R1" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="S1" t="s">
         <v>656</v>
@@ -7452,7 +7400,7 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -50901,18 +50849,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD0743B-D981-8343-87AD-2CC096356247}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="E1" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -51001,13 +50949,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="B8">
         <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E8">
         <v>4.5572450861091696</v>
@@ -51015,13 +50963,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="B9">
         <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E9">
         <v>4.5763549008541098</v>
@@ -51029,13 +50977,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="B10">
         <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E10">
         <v>4.5826314557839201</v>
@@ -51043,13 +50991,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="B11">
         <v>323</v>
       </c>
       <c r="D11" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E11">
         <v>4.4920865851043104</v>
@@ -51057,13 +51005,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="B12">
         <v>383</v>
       </c>
       <c r="D12" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E12">
         <v>4.5011233999906199</v>
@@ -51071,13 +51019,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="B13">
         <v>275</v>
       </c>
       <c r="D13" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="E13">
         <v>4.0388791388174097</v>
@@ -51085,13 +51033,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B14">
         <v>353</v>
       </c>
       <c r="D14" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="E14">
         <v>4.4071971110883199</v>
@@ -51099,13 +51047,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="B15">
         <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="E15">
         <v>4.5192925279209302</v>
@@ -51113,13 +51061,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B16">
         <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E16">
         <v>4.2617447561691897</v>
@@ -51127,13 +51075,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B17">
         <v>285</v>
       </c>
       <c r="D17" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="E17">
         <v>3.94858719442272</v>
@@ -51141,13 +51089,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="B18">
         <v>346</v>
       </c>
       <c r="D18" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="E18">
         <v>4.1864275503885997</v>
@@ -51245,10 +51193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58141E7-BD66-5948-885E-E479BEBEC7E3}">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51261,7 +51209,7 @@
         <v>669</v>
       </c>
       <c r="D1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="H1" t="s">
         <v>641</v>
@@ -51284,16 +51232,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B2">
-        <v>0.39390589999999998</v>
+        <v>0.85049202242619604</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G2" t="s">
         <v>641</v>
@@ -51319,16 +51267,16 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B3">
-        <v>0.47586997861950298</v>
+        <v>0.88047458804745804</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D3" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G3" t="s">
         <v>643</v>
@@ -51354,16 +51302,16 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B4">
-        <v>0.41327072933646303</v>
+        <v>0.91821541226768799</v>
       </c>
       <c r="C4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D4" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G4" t="s">
         <v>644</v>
@@ -51389,16 +51337,16 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B5">
-        <v>0.32042943397852802</v>
+        <v>0.82788960860551997</v>
       </c>
       <c r="C5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D5" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G5" t="s">
         <v>645</v>
@@ -51424,16 +51372,16 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B6">
-        <v>0.46567143358214103</v>
+        <v>0.81071654732086296</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D6" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G6" t="s">
         <v>646</v>
@@ -51459,16 +51407,16 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B7">
-        <v>0.49944847486211902</v>
+        <v>0.87990633602809898</v>
       </c>
       <c r="C7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D7" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G7" t="s">
         <v>647</v>
@@ -51494,19 +51442,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8">
-        <v>0.54295174003310898</v>
+        <v>0.83636555909138999</v>
       </c>
       <c r="C8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G8" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="H8">
         <v>0.63425094513764202</v>
@@ -51529,19 +51477,19 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B9">
-        <v>0.39386308785208002</v>
+        <v>0.87135633567816795</v>
       </c>
       <c r="C9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D9" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G9" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="H9">
         <v>0.59520767976038402</v>
@@ -51564,19 +51512,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B10">
-        <v>0.50935952640392901</v>
+        <v>0.907193376798343</v>
       </c>
       <c r="C10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D10" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G10" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="H10">
         <v>0.64753327049334497</v>
@@ -51599,19 +51547,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B11">
-        <v>0.39359947871989498</v>
+        <v>0.88133455846709596</v>
       </c>
       <c r="C11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D11" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G11" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="H11">
         <v>0.61666514916765303</v>
@@ -51634,19 +51582,19 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12">
-        <v>0.34435926887185397</v>
+        <v>0.860035579005337</v>
       </c>
       <c r="C12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D12" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G12" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="H12">
         <v>0.643514953472757</v>
@@ -51669,19 +51617,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B13">
-        <v>0.39599600000000001</v>
+        <v>0.85501928550192896</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D13" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G13" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="H13">
         <v>0.65016273993490403</v>
@@ -51704,19 +51652,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B14">
-        <v>0.35001430500429098</v>
+        <v>0.84167438416743801</v>
       </c>
       <c r="C14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D14" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G14" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="H14">
         <v>0.61345490000000003</v>
@@ -51739,19 +51687,19 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B15">
-        <v>0.32595843259584301</v>
+        <v>0.86408795243078296</v>
       </c>
       <c r="C15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D15" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G15" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="H15">
         <v>0.58491618301676296</v>
@@ -51774,19 +51722,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B16">
-        <v>0.381610638161064</v>
+        <v>0.84145418414541895</v>
       </c>
       <c r="C16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D16" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G16" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="H16">
         <v>0.66030491889327803</v>
@@ -51809,19 +51757,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B17">
-        <v>0.85049202242619604</v>
+        <v>0.81962056392411298</v>
       </c>
       <c r="C17" t="s">
         <v>670</v>
       </c>
       <c r="D17" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G17" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="H17">
         <v>0.61088286108828704</v>
@@ -51844,19 +51792,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B18">
-        <v>0.88047458804745804</v>
+        <v>0.81537610000000005</v>
       </c>
       <c r="C18" t="s">
         <v>670</v>
       </c>
       <c r="D18" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G18" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="H18">
         <v>0.65942140434715701</v>
@@ -51879,16 +51827,16 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B19">
-        <v>0.91821541226768799</v>
+        <v>0.85152090742395503</v>
       </c>
       <c r="C19" t="s">
         <v>670</v>
       </c>
       <c r="D19" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G19" t="s">
         <v>656</v>
@@ -51914,16 +51862,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B20">
-        <v>0.82788960860551997</v>
+        <v>0.86785427357085498</v>
       </c>
       <c r="C20" t="s">
         <v>670</v>
       </c>
       <c r="D20" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G20" t="s">
         <v>657</v>
@@ -51949,16 +51897,16 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B21">
-        <v>0.81071654732086296</v>
+        <v>0.88575454858954705</v>
       </c>
       <c r="C21" t="s">
         <v>670</v>
       </c>
       <c r="D21" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G21" t="s">
         <v>658</v>
@@ -51984,16 +51932,16 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B22">
-        <v>0.87990633602809898</v>
+        <v>0.90097908019581596</v>
       </c>
       <c r="C22" t="s">
         <v>670</v>
       </c>
       <c r="D22" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G22" t="s">
         <v>659</v>
@@ -52019,16 +51967,16 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B23">
-        <v>0.83636555909138999</v>
+        <v>0.86723486017045803</v>
       </c>
       <c r="C23" t="s">
         <v>670</v>
       </c>
       <c r="D23" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G23" t="s">
         <v>660</v>
@@ -52054,16 +52002,16 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B24">
-        <v>0.87135633567816795</v>
+        <v>0.84930898493089801</v>
       </c>
       <c r="C24" t="s">
         <v>670</v>
       </c>
       <c r="D24" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G24" t="s">
         <v>661</v>
@@ -52089,1318 +52037,1108 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B25">
-        <v>0.907193376798343</v>
+        <v>0.88898279444913997</v>
       </c>
       <c r="C25" t="s">
         <v>670</v>
       </c>
       <c r="D25" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B26">
-        <v>0.88133455846709596</v>
+        <v>0.83382346676469399</v>
       </c>
       <c r="C26" t="s">
         <v>670</v>
       </c>
       <c r="D26" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B27">
-        <v>0.860035579005337</v>
+        <v>0.86433453895054302</v>
       </c>
       <c r="C27" t="s">
         <v>670</v>
       </c>
       <c r="D27" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B28">
-        <v>0.85501928550192896</v>
+        <v>0.83654566730913305</v>
       </c>
       <c r="C28" t="s">
         <v>670</v>
       </c>
       <c r="D28" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B29">
-        <v>0.84167438416743801</v>
+        <v>0.84806585441975701</v>
       </c>
       <c r="C29" t="s">
         <v>670</v>
       </c>
       <c r="D29" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B30">
-        <v>0.86408795243078296</v>
+        <v>0.83582338358233899</v>
       </c>
       <c r="C30" t="s">
         <v>670</v>
       </c>
       <c r="D30" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B31">
-        <v>0.84145418414541895</v>
+        <v>0.83208069160403497</v>
       </c>
       <c r="C31" t="s">
         <v>670</v>
       </c>
       <c r="D31" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B32">
-        <v>0.81962056392411298</v>
+        <v>0.88287110000000002</v>
       </c>
       <c r="C32" t="s">
         <v>670</v>
       </c>
       <c r="D32" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B33">
-        <v>0.81537610000000005</v>
+        <v>0.89646287411571801</v>
       </c>
       <c r="C33" t="s">
         <v>670</v>
       </c>
       <c r="D33" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B34">
-        <v>0.85152090742395503</v>
+        <v>0.93529070000000003</v>
       </c>
       <c r="C34" t="s">
         <v>670</v>
       </c>
       <c r="D34" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B35">
-        <v>0.86785427357085498</v>
+        <v>0.89245998924599901</v>
       </c>
       <c r="C35" t="s">
         <v>670</v>
       </c>
       <c r="D35" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B36">
-        <v>0.88575454858954705</v>
+        <v>0.86156911384308899</v>
       </c>
       <c r="C36" t="s">
         <v>670</v>
       </c>
       <c r="D36" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B37">
-        <v>0.90097908019581596</v>
+        <v>0.91654681251797898</v>
       </c>
       <c r="C37" t="s">
         <v>670</v>
       </c>
       <c r="D37" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B38">
-        <v>0.86723486017045803</v>
+        <v>0.63425094513764202</v>
       </c>
       <c r="C38" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D38" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B39">
-        <v>0.84930898493089801</v>
+        <v>0.59520767976038402</v>
       </c>
       <c r="C39" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D39" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B40">
-        <v>0.88898279444913997</v>
+        <v>0.64753327049334497</v>
       </c>
       <c r="C40" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D40" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B41">
-        <v>0.83382346676469399</v>
+        <v>0.61666514916765303</v>
       </c>
       <c r="C41" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D41" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B42">
-        <v>0.86433453895054302</v>
+        <v>0.643514953472757</v>
       </c>
       <c r="C42" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D42" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B43">
-        <v>0.83654566730913305</v>
+        <v>0.62272119249665503</v>
       </c>
       <c r="C43" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D43" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B44">
-        <v>0.84806585441975701</v>
+        <v>0.59089161590122696</v>
       </c>
       <c r="C44" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D44" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B45">
-        <v>0.83582338358233899</v>
+        <v>0.64034582806916596</v>
       </c>
       <c r="C45" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D45" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B46">
-        <v>0.83208069160403497</v>
+        <v>0.65018128745467796</v>
       </c>
       <c r="C46" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D46" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B47">
-        <v>0.88287110000000002</v>
+        <v>0.64652921163230404</v>
       </c>
       <c r="C47" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D47" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B48">
-        <v>0.89646287411571801</v>
+        <v>0.63508955403582101</v>
       </c>
       <c r="C48" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D48" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B49">
-        <v>0.93529070000000003</v>
+        <v>0.53801756140526902</v>
       </c>
       <c r="C49" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D49" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B50">
-        <v>0.89245998924599901</v>
+        <v>0.71229838561491798</v>
       </c>
       <c r="C50" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D50" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B51">
-        <v>0.86156911384308899</v>
+        <v>0.51643919342432298</v>
       </c>
       <c r="C51" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D51" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B52">
-        <v>0.91654681251797898</v>
+        <v>0.52859995285999495</v>
       </c>
       <c r="C52" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="D52" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B53">
-        <v>0.63425094513764202</v>
+        <v>0.57554388777194398</v>
       </c>
       <c r="C53" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D53" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B54">
-        <v>0.59520767976038402</v>
+        <v>0.54298261719304697</v>
       </c>
       <c r="C54" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D54" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B55">
-        <v>0.64753327049334497</v>
+        <v>0.684472252670838</v>
       </c>
       <c r="C55" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D55" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B56">
-        <v>0.61666514916765303</v>
+        <v>0.56827522951743104</v>
       </c>
       <c r="C56" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D56" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B57">
-        <v>0.643514953472757</v>
+        <v>0.55373961074792299</v>
       </c>
       <c r="C57" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D57" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B58">
-        <v>0.62272119249665503</v>
+        <v>0.64279972139986097</v>
       </c>
       <c r="C58" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D58" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B59">
-        <v>0.59089161590122696</v>
+        <v>0.52738011095204496</v>
       </c>
       <c r="C59" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D59" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B60">
-        <v>0.64034582806916596</v>
+        <v>0.67722865158429801</v>
       </c>
       <c r="C60" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D60" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B61">
-        <v>0.65018128745467796</v>
+        <v>0.56449863065041095</v>
       </c>
       <c r="C61" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D61" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B62">
-        <v>0.64652921163230404</v>
+        <v>0.53019190603838195</v>
       </c>
       <c r="C62" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D62" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B63">
-        <v>0.63508955403582101</v>
+        <v>0.61928308578492497</v>
       </c>
       <c r="C63" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D63" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B64">
-        <v>0.53801756140526902</v>
+        <v>0.60851512170302502</v>
       </c>
       <c r="C64" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D64" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B65">
-        <v>0.71229838561491798</v>
+        <v>0.75846821207658899</v>
       </c>
       <c r="C65" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D65" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B66">
-        <v>0.51643919342432298</v>
+        <v>0.60788979605510196</v>
       </c>
       <c r="C66" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D66" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B67">
-        <v>0.52859995285999495</v>
+        <v>0.63465340000000103</v>
       </c>
       <c r="C67" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="D67" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B68">
-        <v>0.57554388777194398</v>
+        <v>0.65016273993490403</v>
       </c>
       <c r="C68" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D68" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B69">
-        <v>0.54298261719304697</v>
+        <v>0.61345490000000003</v>
       </c>
       <c r="C69" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D69" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B70">
-        <v>0.684472252670838</v>
+        <v>0.58491618301676296</v>
       </c>
       <c r="C70" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D70" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B71">
-        <v>0.56827522951743104</v>
+        <v>0.66030491889327803</v>
       </c>
       <c r="C71" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D71" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B72">
-        <v>0.55373961074792299</v>
+        <v>0.61088286108828704</v>
       </c>
       <c r="C72" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D72" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B73">
-        <v>0.64279972139986097</v>
+        <v>0.65942140434715701</v>
       </c>
       <c r="C73" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D73" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B74">
-        <v>0.52738011095204496</v>
+        <v>0.66327950000000002</v>
       </c>
       <c r="C74" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D74" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B75">
-        <v>0.67722865158429801</v>
+        <v>0.63700315480126202</v>
       </c>
       <c r="C75" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D75" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B76">
-        <v>0.56449863065041095</v>
+        <v>0.61026622205324399</v>
       </c>
       <c r="C76" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D76" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B77">
-        <v>0.53019190603838195</v>
+        <v>0.65007748250387398</v>
       </c>
       <c r="C77" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D77" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B78">
-        <v>0.61928308578492497</v>
+        <v>0.631558915779458</v>
       </c>
       <c r="C78" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D78" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B79">
-        <v>0.60851512170302502</v>
+        <v>0.65555386888922695</v>
       </c>
       <c r="C79" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D79" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B80">
-        <v>0.75846821207658899</v>
+        <v>0.66795554980666705</v>
       </c>
       <c r="C80" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D80" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B81">
-        <v>0.60788979605510196</v>
+        <v>0.60295330073832598</v>
       </c>
       <c r="C81" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D81" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B82">
-        <v>0.63465340000000103</v>
+        <v>0.56159007807950401</v>
       </c>
       <c r="C82" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="D82" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B83">
-        <v>0.65016273993490403</v>
+        <v>0.72838292716170605</v>
       </c>
       <c r="C83" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D83" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B84">
-        <v>0.61345490000000003</v>
+        <v>0.55800534530187096</v>
       </c>
       <c r="C84" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D84" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B85">
-        <v>0.58491618301676296</v>
+        <v>0.72833809508166703</v>
       </c>
       <c r="C85" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D85" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B86">
-        <v>0.66030491889327803</v>
+        <v>0.68845471557726501</v>
       </c>
       <c r="C86" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D86" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B87">
-        <v>0.61088286108828704</v>
+        <v>0.58379915432970397</v>
       </c>
       <c r="C87" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D87" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B88">
-        <v>0.65942140434715701</v>
+        <v>0.49730832459624802</v>
       </c>
       <c r="C88" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D88" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B89">
-        <v>0.66327950000000002</v>
+        <v>0.71262040000000004</v>
       </c>
       <c r="C89" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D89" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B90">
-        <v>0.63700315480126202</v>
+        <v>0.49736167381275298</v>
       </c>
       <c r="C90" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D90" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B91">
-        <v>0.61026622205324399</v>
+        <v>0.69724557568860701</v>
       </c>
       <c r="C91" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D91" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B92">
-        <v>0.65007748250387398</v>
+        <v>0.61734371913281505</v>
       </c>
       <c r="C92" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D92" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B93">
-        <v>0.631558915779458</v>
+        <v>0.57487115120490395</v>
       </c>
       <c r="C93" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D93" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B94">
-        <v>0.65555386888922695</v>
+        <v>0.54018423102763502</v>
       </c>
       <c r="C94" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D94" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B95">
-        <v>0.66795554980666705</v>
+        <v>0.68270660000000105</v>
       </c>
       <c r="C95" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D95" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B96">
-        <v>0.60295330073832598</v>
+        <v>0.52431138594012405</v>
       </c>
       <c r="C96" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D96" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B97">
-        <v>0.56159007807950401</v>
+        <v>0.65916368520907898</v>
       </c>
       <c r="C97" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D97" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B98">
-        <v>0.72838292716170605</v>
+        <v>0.75286736178315905</v>
       </c>
       <c r="C98" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D98" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B99">
-        <v>0.55800534530187096</v>
+        <v>0.64933034739955098</v>
       </c>
       <c r="C99" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D99" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B100">
-        <v>0.72833809508166703</v>
+        <v>0.59338002033099901</v>
       </c>
       <c r="C100" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D100" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B101">
-        <v>0.68845471557726501</v>
+        <v>0.76468784706242998</v>
       </c>
       <c r="C101" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D101" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B102">
-        <v>0.58379915432970397</v>
+        <v>0.58085149521287505</v>
       </c>
       <c r="C102" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D102" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B103">
-        <v>0.49730832459624802</v>
+        <v>0.76305450662547303</v>
       </c>
       <c r="C103" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D103" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
         <v>774</v>
-      </c>
-      <c r="B104">
-        <v>0.71262040000000004</v>
-      </c>
-      <c r="C104" t="s">
-        <v>808</v>
-      </c>
-      <c r="D104" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>775</v>
-      </c>
-      <c r="B105">
-        <v>0.49736167381275298</v>
-      </c>
-      <c r="C105" t="s">
-        <v>808</v>
-      </c>
-      <c r="D105" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>776</v>
-      </c>
-      <c r="B106">
-        <v>0.69724557568860701</v>
-      </c>
-      <c r="C106" t="s">
-        <v>808</v>
-      </c>
-      <c r="D106" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>777</v>
-      </c>
-      <c r="B107">
-        <v>0.61734371913281505</v>
-      </c>
-      <c r="C107" t="s">
-        <v>808</v>
-      </c>
-      <c r="D107" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>778</v>
-      </c>
-      <c r="B108">
-        <v>0.57487115120490395</v>
-      </c>
-      <c r="C108" t="s">
-        <v>808</v>
-      </c>
-      <c r="D108" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>779</v>
-      </c>
-      <c r="B109">
-        <v>0.54018423102763502</v>
-      </c>
-      <c r="C109" t="s">
-        <v>808</v>
-      </c>
-      <c r="D109" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>780</v>
-      </c>
-      <c r="B110">
-        <v>0.68270660000000105</v>
-      </c>
-      <c r="C110" t="s">
-        <v>808</v>
-      </c>
-      <c r="D110" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>781</v>
-      </c>
-      <c r="B111">
-        <v>0.52431138594012405</v>
-      </c>
-      <c r="C111" t="s">
-        <v>808</v>
-      </c>
-      <c r="D111" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>782</v>
-      </c>
-      <c r="B112">
-        <v>0.65916368520907898</v>
-      </c>
-      <c r="C112" t="s">
-        <v>808</v>
-      </c>
-      <c r="D112" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>783</v>
-      </c>
-      <c r="B113">
-        <v>0.75286736178315905</v>
-      </c>
-      <c r="C113" t="s">
-        <v>808</v>
-      </c>
-      <c r="D113" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>784</v>
-      </c>
-      <c r="B114">
-        <v>0.64933034739955098</v>
-      </c>
-      <c r="C114" t="s">
-        <v>808</v>
-      </c>
-      <c r="D114" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>785</v>
-      </c>
-      <c r="B115">
-        <v>0.59338002033099901</v>
-      </c>
-      <c r="C115" t="s">
-        <v>808</v>
-      </c>
-      <c r="D115" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>786</v>
-      </c>
-      <c r="B116">
-        <v>0.76468784706242998</v>
-      </c>
-      <c r="C116" t="s">
-        <v>808</v>
-      </c>
-      <c r="D116" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>787</v>
-      </c>
-      <c r="B117">
-        <v>0.58085149521287505</v>
-      </c>
-      <c r="C117" t="s">
-        <v>808</v>
-      </c>
-      <c r="D117" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>788</v>
-      </c>
-      <c r="B118">
-        <v>0.76305450662547303</v>
-      </c>
-      <c r="C118" t="s">
-        <v>808</v>
-      </c>
-      <c r="D118" t="s">
-        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -53414,9 +53152,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65331A43-0063-1A42-8956-82FEA048F0F0}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -53426,7 +53164,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>513</v>
       </c>
       <c r="D1" t="s">
@@ -53462,7 +53200,7 @@
         <v>643</v>
       </c>
       <c r="E3" s="1" t="e">
-        <f t="shared" ref="E3:E26" si="0">LOG(B3*10)</f>
+        <f t="shared" ref="E3:E24" si="0">LOG(B3*10)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -53528,7 +53266,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="B8">
         <v>2.5235699999999999</v>
@@ -53543,7 +53281,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="B9">
         <v>2.7947799999999998</v>
@@ -53558,7 +53296,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="B10">
         <v>2.5990700000000002</v>
@@ -53573,7 +53311,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="B11">
         <v>1.3854900000000001</v>
@@ -53588,7 +53326,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="B12">
         <v>0.62922999999999996</v>
@@ -53603,7 +53341,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="B13">
         <v>11.87031</v>
@@ -53618,7 +53356,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B14">
         <v>16.033940000000001</v>
@@ -53633,7 +53371,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="B15">
         <v>1.2030000000000001</v>
@@ -53648,7 +53386,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="B16">
         <v>14.06737</v>
@@ -53663,7 +53401,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B17">
         <v>15.813700000000001</v>
@@ -53678,7 +53416,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="B18">
         <v>20.830850000000002</v>
@@ -53781,11 +53519,6 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1"/>
-    <row r="26" spans="1:5" s="2" customFormat="1"/>
-    <row r="27" spans="1:5" s="2" customFormat="1"/>
-    <row r="28" spans="1:5" s="2" customFormat="1"/>
-    <row r="29" spans="1:5" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
